--- a/filtered_data.xlsx
+++ b/filtered_data.xlsx
@@ -436,62 +436,62 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>PROVEEDOR</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 1</t>
+          <t>NUMERO DE FACTURA</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 2</t>
+          <t>FECHA DE FACTURA</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 3</t>
+          <t>IMPORTE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 4</t>
+          <t>FECHA VENCIMIENTO</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 5</t>
+          <t>FORMA DE PAGO</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 6</t>
+          <t>ESTADO DE PAGO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 7</t>
+          <t>FECHA DE PAGO</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 8</t>
+          <t>IMPORTE PAGADO</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 9</t>
+          <t>PTE PAGO</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 10</t>
+          <t>gastos devolucion</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 11</t>
+          <t>OBERVACIONES</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 13</t>
+          <t>Total pendiente</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 15</t>
+          <t>total parcialmente pendiente</t>
         </is>
       </c>
     </row>
